--- a/ECE 2020/Numero de escaños.xlsx
+++ b/ECE 2020/Numero de escaños.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chiara Zamora\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78AE6EF5-A164-4BBE-8013-4D54FB7CEEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F870DD3-1273-4FB9-9C64-B0264474E757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02B8E4E4-215C-44C4-AF5A-ED696EC45FC7}"/>
   </bookViews>
@@ -42,12 +42,6 @@
     <t>AMAZONAS</t>
   </si>
   <si>
-    <t>ÁNCASH</t>
-  </si>
-  <si>
-    <t>APURÍMAC</t>
-  </si>
-  <si>
     <t>AREQUIPA</t>
   </si>
   <si>
@@ -66,15 +60,9 @@
     <t>HUANCAVELICA</t>
   </si>
   <si>
-    <t>HUÁNUCO</t>
-  </si>
-  <si>
     <t>ICA</t>
   </si>
   <si>
-    <t>JUNÍN</t>
-  </si>
-  <si>
     <t>LA LIBERTAD</t>
   </si>
   <si>
@@ -105,9 +93,6 @@
     <t>PUNO</t>
   </si>
   <si>
-    <t>SAN MARTÍN</t>
-  </si>
-  <si>
     <t>TACNA</t>
   </si>
   <si>
@@ -115,6 +100,21 @@
   </si>
   <si>
     <t>UCAYALI</t>
+  </si>
+  <si>
+    <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>JUNIN</t>
+  </si>
+  <si>
+    <t>HUANUCO</t>
+  </si>
+  <si>
+    <t>ANCASH</t>
+  </si>
+  <si>
+    <t>APURIMAC</t>
   </si>
 </sst>
 </file>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C60218B-F40C-405E-972C-49F22F48905F}">
   <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,7 +508,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
         <v>36</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>7</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
